--- a/backend/corpora/uu_course_descriptions/tests/data/2024_doel_inhoud.xlsx
+++ b/backend/corpora/uu_course_descriptions/tests/data/2024_doel_inhoud.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t xml:space="preserve">CURSUS</t>
   </si>
@@ -67,33 +67,13 @@
     <t xml:space="preserve">DOEL</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;html&gt;
-&lt;head&gt;
-	&lt;title&gt;&lt;/title&gt;
-	&lt;style type="text/css"&gt;body { font-size: 9pt; font-family: Arial } table { font-size: 9pt; font-family: Arial }
-	&lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
-&lt;ul&gt;
-	&lt;li&gt;Verwerven van kennis over en inzicht in&amp;nbsp;de veranderende rol van families in onze samenleving en de verschillende sociaalwetenschappelijke verklaringen daarvoor&lt;/li&gt;
-	&lt;li&gt;Het kunnen lezen, beschrijven en interpreteren van kwantitatieve empirische gegevens, tabellen en grafieken over sociaal-demografische onderwerpen&lt;/li&gt;
-	&lt;li&gt;Het kunnen toepassen van sociaalwetenschappelijke theorieën om empirische gegevens te duiden en verklaren&lt;/li&gt;
-	&lt;li&gt;Het kunnen afleiden en formuleren van toetsbare hypothesen&lt;/li&gt;
-	&lt;li&gt;Het kunnen toetsen van hypothesen met behulp van statistische analyses, i.h.b. regressieanalyse, op een grootschalige dataset, inclusief data manipulatie&lt;/li&gt;
-	&lt;li&gt;Het op een wetenschappelijke wijze rapporteren over de resultaten van het onderzoek&lt;/li&gt;
-&lt;/ul&gt;
-&lt;/body&gt;
-&lt;/html&gt;
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;html&gt;&lt;head&gt;&lt;title&gt;&lt;/title&gt;&lt;style type="text/css"&gt;body { font-size: 9pt; font-family: Arial } table { font-size: 9pt; font-family: Arial }&lt;/style&gt;&lt;/head&gt;&lt;body&gt;&lt;ul&gt;&lt;li&gt;Begrijpen van de functie van testen in software.&lt;/li&gt;&lt;li&gt;Het kunnen schrijven van unittest functies op basis van een specificatie&lt;/li&gt;&lt;li&gt;Het kunnen toepassen van een test-driven workflow bij het oplossen van bugs&lt;/li&gt;&lt;/ul&gt;&lt;/body&gt;&lt;/html&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Test-driven development</t>
+    <t xml:space="preserve">&lt;html&gt;&lt;head&gt;&lt;title&gt;&lt;/title&gt;&lt;meta http-equiv="content-type" content="text/html; charset=utf-8" /&gt;&lt;style type="text/css"&gt;body { font-size: 9pt; font-family: Arial } table { font-size: 9pt; font-family: Arial }&lt;/style&gt;&lt;/head&gt;&lt;body&gt;In deze cursus leren studenten de basis van testen in softwareontwikkeling.&lt;br /&gt;In de hoorcolleges wordt ingegaan op de motivatie om te testen, en leren studenten over de integratie van testen in een development-workflow.&lt;br /&gt;In practica leren studenten om zelf tests te schrijven aan de hand van praktische opdrachten.&lt;/body&gt;&lt;/html&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;html&gt;&lt;head&gt;&lt;title&gt;&lt;/title&gt;&lt;meta http-equiv="content-type" content="text/html; charset=utf-8" /&gt;&lt;style type="text/css"&gt;body { font-size: 9pt; font-family: Arial } table { font-size: 9pt; font-family: Arial }&lt;/style&gt;&lt;/head&gt;&lt;body&gt;In deze cursus leren studenten de basis van testen in softwareontwikkeling.&lt;br /&gt;In de hoorcolleges wordt ingegaan op de motivatie om te testen, en leren studenten over de integratie van testen in een development-workflow.&lt;br /&gt;In practica leren studenten om zelf tests te schrijven aan de hand van praktische opdrachten.&lt;/body&gt;&lt;/html&gt;</t>
+    <t xml:space="preserve">Test-driven development</t>
   </si>
   <si>
     <t xml:space="preserve">Advanced unit testing</t>
@@ -211,9 +191,9 @@
   <dimension ref="A1:J1008"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,9 +331,6 @@
       <c r="I4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="236.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -393,7 +370,7 @@
         <v>2024</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>0</v>
@@ -423,7 +400,7 @@
         <v>2024</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>0</v>
